--- a/tests/data/test_case_extra_types.xlsx
+++ b/tests/data/test_case_extra_types.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -245,9 +245,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -262,11 +270,19 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="14">
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
@@ -637,11 +653,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="1025" width="9.1640625" style="1"/>
@@ -742,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMM8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -961,6 +977,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1037,6 +1054,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
